--- a/7th Week/1. BAI NOP CHO FSOFT/SE18_SanPham_Tuan7/SE18_BlackBoxTestCase_v1.0/SE18_BlackBoxTestCase_StaffManagement.xlsx
+++ b/7th Week/1. BAI NOP CHO FSOFT/SE18_SanPham_Tuan7/SE18_BlackBoxTestCase_v1.0/SE18_BlackBoxTestCase_StaffManagement.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning Resources\Cong Nghe Phan Mem\Do An\Codee\trunk\7th Week\1. BAI NOP CHO FSOFT\SE18_SanPham_Tuan7\SE18_BlackBoxTestCase_v1.0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="7320" tabRatio="821" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15396" windowHeight="7320" tabRatio="821" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -22,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">StaffManagement!$A$8:$H$13</definedName>
     <definedName name="ACTION">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -32,7 +37,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E11" authorId="0">
+    <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +111,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F8" authorId="0">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +139,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F8" authorId="0">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +167,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F8" authorId="0">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +195,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F8" authorId="0">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -213,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="177">
   <si>
     <t>Module Code</t>
   </si>
@@ -335,19 +340,7 @@
     <t>Pre-Condition</t>
   </si>
   <si>
-    <t>Test the Clear button</t>
-  </si>
-  <si>
-    <t>User Click on the Clear button</t>
-  </si>
-  <si>
     <t>All the field are setted to empty, all the dropdown list are setted to default</t>
-  </si>
-  <si>
-    <t>Test the Cancel button</t>
-  </si>
-  <si>
-    <t>User Click on the Cancel button</t>
   </si>
   <si>
     <t>Close the input form</t>
@@ -417,12 +410,37 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">User click on the </t>
+      <t xml:space="preserve">Display the </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Staff Managemen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>screen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Display the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
@@ -431,10 +449,11 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> button on the main screen, the Staff Management screen will be opened</t>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> screen</t>
     </r>
   </si>
   <si>
@@ -443,13 +462,29 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>main screen</t>
-    </r>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Staff Management_Add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> form</t>
+    </r>
+  </si>
+  <si>
+    <t>The screen will look like this</t>
+  </si>
+  <si>
+    <t>User click on the date picker at Date of Birth to choose birthday.</t>
   </si>
   <si>
     <r>
@@ -463,30 +498,6 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Staff Managemen </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>screen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Display the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
       <t>Staff Management</t>
     </r>
     <r>
@@ -496,98 +507,20 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> screen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Display the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Staff Management_Add</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve"> form</t>
     </r>
   </si>
   <si>
-    <t>The screen will look like this</t>
-  </si>
-  <si>
-    <t>Test the user interface of the Add screen</t>
-  </si>
-  <si>
-    <t>Test the date picker of Date of Birth</t>
-  </si>
-  <si>
-    <t>User click on the date picker at Date of Birth to choose birthday.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Display the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Staff Management</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> form</t>
-    </r>
-  </si>
-  <si>
     <t>The date picker will show day, month and year to choose.</t>
   </si>
   <si>
-    <t>Test the Position dropdown list</t>
-  </si>
-  <si>
-    <t>User click on the Position dropdown list to chose the position of staff's member</t>
-  </si>
-  <si>
     <t xml:space="preserve">The dropdown list load all the Position from database and display them. </t>
-  </si>
-  <si>
-    <t>Test the Add button</t>
-  </si>
-  <si>
-    <t>User Click on the Add button</t>
   </si>
   <si>
     <t>All mandatory fields must be filled.
 Display an successful Adding message.</t>
   </si>
   <si>
-    <t>Test the user interface of the Update screen</t>
-  </si>
-  <si>
-    <t>User click on the Update button on the Staff Managment screen, the Update screen will be opened</t>
-  </si>
-  <si>
     <t>User click on the Add button on the Staff Managment screen, the Add screen will be opened</t>
   </si>
   <si>
@@ -600,12 +533,6 @@
     <t>Function: StaffManagement_Update</t>
   </si>
   <si>
-    <t>Display the Staff Management form</t>
-  </si>
-  <si>
-    <t>Display the Staff Management_Update form</t>
-  </si>
-  <si>
     <t>Display the StaffManagement_Timebook form, all the function can excute</t>
   </si>
   <si>
@@ -615,24 +542,9 @@
     <t>Function: StaffManagement_Timebook</t>
   </si>
   <si>
-    <t>Display the Staff Management screen</t>
-  </si>
-  <si>
-    <t>Display the Timebook form</t>
-  </si>
-  <si>
-    <t>Test the user interface of the Timebook screen</t>
-  </si>
-  <si>
-    <t>User click on the Timebook button on the Staff Managment screen, the Timebook screen will be opened</t>
-  </si>
-  <si>
     <t>Test the Search button</t>
   </si>
   <si>
-    <t>User Click on the Search button</t>
-  </si>
-  <si>
     <t>Return a message: Keyword is found or not found</t>
   </si>
   <si>
@@ -645,6 +557,93 @@
     <t xml:space="preserve">The dropdown list load all the name from database and display them. </t>
   </si>
   <si>
+    <t>Test the Remove button</t>
+  </si>
+  <si>
+    <t>The selected item is removed from the data grid view</t>
+  </si>
+  <si>
+    <t>Function: StaffManagement</t>
+  </si>
+  <si>
+    <t>Show the StaffManagement screen, all functions can excute</t>
+  </si>
+  <si>
+    <t>MobilePhone Management System</t>
+  </si>
+  <si>
+    <t>SE18</t>
+  </si>
+  <si>
+    <t>Dung Pham Anh</t>
+  </si>
+  <si>
+    <t>SM01</t>
+  </si>
+  <si>
+    <t>SM02</t>
+  </si>
+  <si>
+    <t>SM03</t>
+  </si>
+  <si>
+    <t>SM04</t>
+  </si>
+  <si>
+    <t>SM05</t>
+  </si>
+  <si>
+    <t>SM06</t>
+  </si>
+  <si>
+    <t>SM07</t>
+  </si>
+  <si>
+    <t>SMA01</t>
+  </si>
+  <si>
+    <t>SMA02</t>
+  </si>
+  <si>
+    <t>SMA03</t>
+  </si>
+  <si>
+    <t>SMA04</t>
+  </si>
+  <si>
+    <t>SMA05</t>
+  </si>
+  <si>
+    <t>SMA06</t>
+  </si>
+  <si>
+    <t>SMU01</t>
+  </si>
+  <si>
+    <t>SMU02</t>
+  </si>
+  <si>
+    <t>SMU03</t>
+  </si>
+  <si>
+    <t>SMU04</t>
+  </si>
+  <si>
+    <t>SMU05</t>
+  </si>
+  <si>
+    <t>SMU06</t>
+  </si>
+  <si>
+    <t>SMT01</t>
+  </si>
+  <si>
+    <t>SMT02</t>
+  </si>
+  <si>
+    <t>SMT03</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">User click on the </t>
     </r>
@@ -655,6 +654,77 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
+      <t>Staff Management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Main screen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Staff Management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> screen will be opened</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Display the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Main screen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
       <t>Add</t>
     </r>
     <r>
@@ -663,7 +733,41 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> button on the main screen, the Add screen will be opened</t>
+      <t xml:space="preserve"> button on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Staff Management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> screen, the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> screen will be opened</t>
     </r>
   </si>
   <si>
@@ -685,7 +789,41 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> button on the main screen, the Update screen will be opened</t>
+      <t xml:space="preserve"> button on the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Staff Management </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">screen, the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> screen will be opened</t>
     </r>
   </si>
   <si>
@@ -707,32 +845,909 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> button on the main screen, the Timebook screen will be opened</t>
-    </r>
-  </si>
-  <si>
-    <t>Test the Remove button</t>
-  </si>
-  <si>
-    <t>User lick on the item in the data grid view below and click on Remove button</t>
-  </si>
-  <si>
-    <t>The selected item is removed from the data grid view</t>
-  </si>
-  <si>
-    <t>Function: StaffManagement</t>
-  </si>
-  <si>
-    <t>Show the StaffManagement screen, all functions can excute</t>
-  </si>
-  <si>
-    <t>MobilePhone Management System</t>
-  </si>
-  <si>
-    <t>SE18</t>
-  </si>
-  <si>
-    <t>Dung Pham Anh</t>
+      <t xml:space="preserve"> button on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Staff Management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> screen, the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Timebook </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>screen will be opened</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User click on the item in the data grid view below and click on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>dropdown list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to choose the name of search's filter</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The dropdown list load all the staff's member's name from database and display them. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User enter keyword into the textbox and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test the textbox </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter the text: ""</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Display a message: "The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is incorrect."</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter the text: "   "</t>
+  </si>
+  <si>
+    <r>
+      <t>Enter the text: "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>!@#$%^&amp;*()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Enter the text: "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1234567890</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>SMA07</t>
+  </si>
+  <si>
+    <t>SMA08</t>
+  </si>
+  <si>
+    <t>SMA09</t>
+  </si>
+  <si>
+    <t>SMA10</t>
+  </si>
+  <si>
+    <t>SMA11</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test the textbox </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Phone Number</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Enter the text: "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>abcdefghijk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Display a message: "The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Phone Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is incorrect."</t>
+    </r>
+  </si>
+  <si>
+    <t>SMA12</t>
+  </si>
+  <si>
+    <t>SMA13</t>
+  </si>
+  <si>
+    <t>SMA14</t>
+  </si>
+  <si>
+    <t>SMA15</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> dropdown list to chose the position of staff's member and check if the chosen item is exactly display in the dropdown list "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Position </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>dropdown list</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test the textbox </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Salary</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Display a message: "The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Salary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is incorrect."</t>
+    </r>
+  </si>
+  <si>
+    <t>SMA16</t>
+  </si>
+  <si>
+    <t>SMA17</t>
+  </si>
+  <si>
+    <t>SMA18</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Display the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Staff Management </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>form</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test the user interface of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Update </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>screen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Staff Managment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> screen, the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> screen will be opened</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Display the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Staff Management_Update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> form</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Clear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cancel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Clear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cancel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> dropdown list</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test the date picker of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Date of Birth</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test the user interface of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> screen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The dropdown list load all the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from database and display them. </t>
+    </r>
+  </si>
+  <si>
+    <t>SMU07</t>
+  </si>
+  <si>
+    <t>SMU08</t>
+  </si>
+  <si>
+    <t>SMU09</t>
+  </si>
+  <si>
+    <t>SMU10</t>
+  </si>
+  <si>
+    <t>SMU11</t>
+  </si>
+  <si>
+    <t>SMU12</t>
+  </si>
+  <si>
+    <t>SMU13</t>
+  </si>
+  <si>
+    <t>SMU14</t>
+  </si>
+  <si>
+    <t>SMU15</t>
+  </si>
+  <si>
+    <t>SMU16</t>
+  </si>
+  <si>
+    <t>SMU17</t>
+  </si>
+  <si>
+    <t>SMU18</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test the user interface of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Timebook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> screen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Timebook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Staff Management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> screen, the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Timebook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> screen will be opened</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Display the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Timebook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> form</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Return a message: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Keyword is found or not found</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1250,7 +2265,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1496,25 +2511,31 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2213,17 +3234,17 @@
   <dimension ref="A2:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.25" style="39" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="69" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="39" customWidth="1"/>
+    <col min="1" max="1" width="2.21875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="69" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="39" customWidth="1"/>
     <col min="4" max="4" width="16" style="39" customWidth="1"/>
     <col min="5" max="5" width="8" style="39" customWidth="1"/>
-    <col min="6" max="6" width="31.125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="31.109375" style="39" customWidth="1"/>
     <col min="7" max="7" width="31" style="39" customWidth="1"/>
     <col min="8" max="16384" width="9" style="39"/>
   </cols>
@@ -2231,13 +3252,13 @@
     <row r="2" spans="1:7" s="38" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="40"/>
@@ -2248,54 +3269,54 @@
       <c r="B4" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="101" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
+      <c r="C4" s="103" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
       <c r="F4" s="42" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="B5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
+      <c r="C5" s="103" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
       <c r="F5" s="42" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="103" t="str">
+      <c r="C6" s="105" t="str">
         <f>C5&amp;"_"&amp;"BackBoxTestcase"&amp;"_"&amp;"v1.0"</f>
         <v>SE18_BackBoxTestcase_v1.0</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
       <c r="F6" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="94">
+      <c r="G6" s="92">
         <v>42341</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="102"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
       <c r="F7" s="42" t="s">
         <v>25</v>
       </c>
@@ -2344,7 +3365,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="58" customFormat="1">
-      <c r="B12" s="99"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="59"/>
       <c r="D12" s="60"/>
       <c r="E12" s="60"/>
@@ -2418,7 +3439,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2429,22 +3450,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="1.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="89" customWidth="1"/>
-    <col min="3" max="3" width="30.25" style="71" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="71" customWidth="1"/>
-    <col min="5" max="5" width="29.75" style="71" customWidth="1"/>
-    <col min="6" max="6" width="49.375" style="71" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="89" customWidth="1"/>
+    <col min="3" max="3" width="30.21875" style="71" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="71" customWidth="1"/>
+    <col min="5" max="5" width="29.77734375" style="71" customWidth="1"/>
+    <col min="6" max="6" width="49.33203125" style="71" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="25.5">
+    <row r="1" spans="2:6" ht="24.6">
       <c r="B1" s="70"/>
       <c r="D1" s="72" t="s">
         <v>33</v>
@@ -2457,38 +3478,38 @@
       <c r="E2" s="74"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105" t="str">
+      <c r="C4" s="106"/>
+      <c r="D4" s="107" t="str">
         <f>D3</f>
         <v>MobilePhone Store Management</v>
       </c>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
     </row>
     <row r="5" spans="2:6" s="2" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="107" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="75"/>
@@ -2521,72 +3542,72 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="13.5">
+    <row r="9" spans="2:6">
       <c r="B9" s="85">
         <v>1</v>
       </c>
       <c r="C9" s="86" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" s="87" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E9" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="13.5">
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" s="85">
         <v>2</v>
       </c>
       <c r="C10" s="86" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D10" s="87" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E10" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="88" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="13.5">
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" s="85">
         <v>3</v>
       </c>
       <c r="C11" s="86" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D11" s="87" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E11" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="88" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="13.5">
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" s="85">
         <v>4</v>
       </c>
       <c r="C12" s="86" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D12" s="87" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E12" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="88" t="s">
         <v>57</v>
-      </c>
-      <c r="F12" s="88" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -2684,22 +3705,22 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:IV65536"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:F3"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" style="4" customWidth="1"/>
     <col min="10" max="10" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
@@ -2719,13 +3740,13 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="B2" s="111" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
       <c r="G2" s="12"/>
       <c r="H2" s="2"/>
       <c r="I2" s="9"/>
@@ -2737,13 +3758,13 @@
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="109" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
+      <c r="B3" s="111" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
       <c r="G3" s="12"/>
       <c r="H3" s="2"/>
       <c r="I3" s="9"/>
@@ -2755,11 +3776,11 @@
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
       <c r="G4" s="12"/>
       <c r="H4" s="2"/>
       <c r="I4" s="9"/>
@@ -2778,10 +3799,10 @@
       <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="111"/>
+      <c r="F5" s="113"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
@@ -2791,26 +3812,26 @@
     </row>
     <row r="6" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="20">
-        <f>COUNTIF(F32:F1014,"Pass")</f>
+        <f>COUNTIF(F10:F1014,"Pass")</f>
         <v>0</v>
       </c>
       <c r="B6" s="21">
-        <f>COUNTIF(F32:F1014,"Fail")</f>
+        <f>COUNTIF(F10:F1014,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="21">
         <f>E6-D6-B6-A6</f>
+        <v>7</v>
+      </c>
+      <c r="D6" s="22">
+        <f>COUNTIF(F$10:F$1014,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="22">
-        <f>COUNTIF(F$32:F$1014,"N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="108">
-        <f>COUNTA(A32:A999)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="108"/>
+      <c r="E6" s="110">
+        <f>COUNTA(A10:A999)</f>
+        <v>7</v>
+      </c>
+      <c r="F6" s="110"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -2859,7 +3880,7 @@
     <row r="9" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="27" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -2869,149 +3890,149 @@
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
     </row>
-    <row r="10" spans="1:10" s="90" customFormat="1" ht="38.25">
-      <c r="A10" s="31">
-        <v>1</v>
+    <row r="10" spans="1:10" s="90" customFormat="1" ht="66">
+      <c r="A10" s="96" t="s">
+        <v>90</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="93" t="s">
-        <v>71</v>
+        <v>112</v>
+      </c>
+      <c r="D10" s="99" t="s">
+        <v>65</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
       <c r="I10" s="30"/>
     </row>
-    <row r="11" spans="1:10" s="90" customFormat="1" ht="38.25">
-      <c r="A11" s="31">
-        <v>2</v>
+    <row r="11" spans="1:10" s="90" customFormat="1" ht="52.8">
+      <c r="A11" s="96" t="s">
+        <v>91</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="93" t="s">
-        <v>71</v>
+        <v>114</v>
+      </c>
+      <c r="D11" s="99" t="s">
+        <v>65</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
       <c r="H11" s="32"/>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="1:10" s="90" customFormat="1" ht="38.25">
-      <c r="A12" s="31">
-        <v>3</v>
+    <row r="12" spans="1:10" s="90" customFormat="1" ht="52.8">
+      <c r="A12" s="96" t="s">
+        <v>92</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="93" t="s">
-        <v>71</v>
+        <v>115</v>
+      </c>
+      <c r="D12" s="99" t="s">
+        <v>65</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
       <c r="H12" s="32"/>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="1:10" s="90" customFormat="1" ht="38.25">
-      <c r="A13" s="31">
-        <v>4</v>
+    <row r="13" spans="1:10" s="90" customFormat="1" ht="66">
+      <c r="A13" s="96" t="s">
+        <v>93</v>
       </c>
       <c r="B13" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="93" t="s">
-        <v>71</v>
-      </c>
       <c r="E13" s="34" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
       <c r="H13" s="32"/>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="1:10" s="90" customFormat="1" ht="38.25">
-      <c r="A14" s="31">
-        <v>5</v>
+    <row r="14" spans="1:10" s="90" customFormat="1" ht="39.6">
+      <c r="A14" s="96" t="s">
+        <v>94</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="96" t="s">
-        <v>109</v>
+        <v>117</v>
+      </c>
+      <c r="D14" s="97" t="s">
+        <v>84</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-    </row>
-    <row r="15" spans="1:10" s="90" customFormat="1" ht="25.5">
-      <c r="A15" s="31">
-        <v>6</v>
+        <v>63</v>
+      </c>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+    </row>
+    <row r="15" spans="1:10" s="90" customFormat="1" ht="39.6">
+      <c r="A15" s="96" t="s">
+        <v>95</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="97" t="s">
-        <v>103</v>
+        <v>118</v>
+      </c>
+      <c r="D15" s="98" t="s">
+        <v>119</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-    </row>
-    <row r="16" spans="1:10" s="90" customFormat="1" ht="25.5">
-      <c r="A16" s="31">
-        <v>7</v>
+        <v>63</v>
+      </c>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+    </row>
+    <row r="16" spans="1:10" s="90" customFormat="1" ht="39.6">
+      <c r="A16" s="96" t="s">
+        <v>96</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="97" t="s">
-        <v>100</v>
+        <v>120</v>
+      </c>
+      <c r="D16" s="98" t="s">
+        <v>176</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
+        <v>63</v>
+      </c>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
     </row>
     <row r="17" spans="1:9" s="90" customFormat="1">
       <c r="A17" s="30"/>
@@ -3115,28 +4136,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" style="4" customWidth="1"/>
     <col min="10" max="10" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="10" customFormat="1" ht="13.5" thickBot="1">
+    <row r="1" spans="1:10" s="10" customFormat="1" ht="13.8" thickBot="1">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3151,13 +4172,13 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="B2" s="111" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
       <c r="G2" s="12"/>
       <c r="H2" s="2"/>
       <c r="I2" s="9"/>
@@ -3169,13 +4190,13 @@
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="109" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
+      <c r="B3" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
       <c r="G3" s="12"/>
       <c r="H3" s="2"/>
       <c r="I3" s="9"/>
@@ -3187,11 +4208,11 @@
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
       <c r="G4" s="12"/>
       <c r="H4" s="2"/>
       <c r="I4" s="9"/>
@@ -3210,10 +4231,10 @@
       <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="111"/>
+      <c r="F5" s="113"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
@@ -3223,26 +4244,26 @@
     </row>
     <row r="6" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="20">
-        <f>COUNTIF(F30:F1012,"Pass")</f>
+        <f>COUNTIF(F10:F1024,"Pass")</f>
         <v>0</v>
       </c>
       <c r="B6" s="21">
-        <f>COUNTIF(F30:F1012,"Fail")</f>
+        <f>COUNTIF(F10:F1024,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="21">
         <f>E6-D6-B6-A6</f>
+        <v>18</v>
+      </c>
+      <c r="D6" s="22">
+        <f>COUNTIF(F$10:F$1024,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="22">
-        <f>COUNTIF(F$30:F$1012,"N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="108">
-        <f>COUNTA(A30:A997)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="108"/>
+      <c r="E6" s="110">
+        <f>COUNTA(A10:A1009)</f>
+        <v>18</v>
+      </c>
+      <c r="F6" s="110"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -3291,7 +4312,7 @@
     <row r="9" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="27" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -3301,206 +4322,458 @@
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
     </row>
-    <row r="10" spans="1:10" s="90" customFormat="1" ht="38.25">
-      <c r="A10" s="31">
-        <v>1</v>
+    <row r="10" spans="1:10" s="90" customFormat="1" ht="39.6">
+      <c r="A10" s="96" t="s">
+        <v>97</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="92" t="s">
         <v>71</v>
       </c>
+      <c r="D10" s="100" t="s">
+        <v>65</v>
+      </c>
       <c r="E10" s="34" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
       <c r="I10" s="30"/>
     </row>
-    <row r="11" spans="1:10" s="90" customFormat="1" ht="25.5">
-      <c r="A11" s="31">
-        <v>2</v>
+    <row r="11" spans="1:10" s="90" customFormat="1" ht="26.4">
+      <c r="A11" s="96" t="s">
+        <v>98</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>76</v>
+        <v>122</v>
+      </c>
+      <c r="D11" s="101" t="s">
+        <v>123</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
       <c r="H11" s="32"/>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="1:10" s="90" customFormat="1" ht="38.25">
-      <c r="A12" s="31">
-        <v>3</v>
+    <row r="12" spans="1:10" s="90" customFormat="1" ht="26.4">
+      <c r="A12" s="96" t="s">
+        <v>99</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>79</v>
+        <v>124</v>
+      </c>
+      <c r="D12" s="101" t="s">
+        <v>123</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
       <c r="H12" s="32"/>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="1:10" s="90" customFormat="1" ht="38.25">
-      <c r="A13" s="31">
-        <v>4</v>
+    <row r="13" spans="1:10" s="90" customFormat="1" ht="26.4">
+      <c r="A13" s="96" t="s">
+        <v>100</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>82</v>
+        <v>125</v>
+      </c>
+      <c r="D13" s="101" t="s">
+        <v>123</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
       <c r="H13" s="32"/>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="1:10" s="90" customFormat="1" ht="38.25">
-      <c r="A14" s="31">
-        <v>5</v>
+    <row r="14" spans="1:10" s="90" customFormat="1" ht="26.4">
+      <c r="A14" s="96" t="s">
+        <v>101</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>42</v>
+        <v>126</v>
+      </c>
+      <c r="D14" s="101" t="s">
+        <v>123</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="32"/>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="1:10" s="90" customFormat="1" ht="25.5">
-      <c r="A15" s="31">
-        <v>6</v>
+    <row r="15" spans="1:10" s="90" customFormat="1" ht="26.4">
+      <c r="A15" s="96" t="s">
+        <v>102</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>45</v>
+        <v>66</v>
+      </c>
+      <c r="D15" s="101" t="s">
+        <v>68</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
       <c r="H15" s="32"/>
       <c r="I15" s="30"/>
     </row>
-    <row r="16" spans="1:10" s="90" customFormat="1">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:10" s="90" customFormat="1" ht="26.4">
+      <c r="A16" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
       <c r="I16" s="30"/>
     </row>
-    <row r="17" spans="1:9" s="90" customFormat="1">
-      <c r="A17" s="30"/>
-    </row>
-    <row r="18" spans="1:9" s="90" customFormat="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="33"/>
-      <c r="G19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="33"/>
-      <c r="G20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="33"/>
-      <c r="G21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="33"/>
-      <c r="G22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="33"/>
-      <c r="G23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="33"/>
-      <c r="G24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="33"/>
-      <c r="G25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="33"/>
-      <c r="G26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="33"/>
-      <c r="G27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="33"/>
-      <c r="G28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="33"/>
-      <c r="G29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" ht="66.75" customHeight="1">
-      <c r="I30" s="1"/>
+    <row r="17" spans="1:9" s="90" customFormat="1" ht="26.4">
+      <c r="A17" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="30"/>
+    </row>
+    <row r="18" spans="1:9" s="90" customFormat="1" ht="26.4">
+      <c r="A18" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="30"/>
+    </row>
+    <row r="19" spans="1:9" s="90" customFormat="1" ht="26.4">
+      <c r="A19" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="1:9" s="90" customFormat="1" ht="79.2">
+      <c r="A20" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" spans="1:9" s="90" customFormat="1" ht="26.4">
+      <c r="A21" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="1:9" s="90" customFormat="1" ht="26.4">
+      <c r="A22" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="1:9" s="90" customFormat="1" ht="26.4">
+      <c r="A23" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:9" s="90" customFormat="1" ht="26.4">
+      <c r="A24" s="96" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="1:9" s="90" customFormat="1" ht="52.8">
+      <c r="A25" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="1:9" s="90" customFormat="1" ht="39.6">
+      <c r="A26" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="30"/>
+    </row>
+    <row r="27" spans="1:9" s="90" customFormat="1" ht="26.4">
+      <c r="A27" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="1:9" s="90" customFormat="1">
+      <c r="A28" s="30"/>
+      <c r="I28" s="30"/>
+    </row>
+    <row r="29" spans="1:9" s="90" customFormat="1">
+      <c r="A29" s="30"/>
+    </row>
+    <row r="30" spans="1:9" s="90" customFormat="1">
+      <c r="A30" s="4"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="33"/>
+      <c r="G31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="33"/>
+      <c r="G32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="33"/>
+      <c r="G33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="33"/>
+      <c r="G34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="33"/>
+      <c r="G35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="33"/>
+      <c r="G36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="33"/>
+      <c r="G37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="33"/>
+      <c r="G38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="33"/>
+      <c r="G39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="33"/>
+      <c r="G40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="33"/>
+      <c r="G41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" ht="66.75" customHeight="1">
+      <c r="I42" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3511,7 +4784,7 @@
     <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F33:F159 F1:F3 F7:F15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F45:F171 F1:F3 F7:F27">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3527,28 +4800,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:D12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" style="4" customWidth="1"/>
     <col min="10" max="10" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="10" customFormat="1" ht="13.5" thickBot="1">
+    <row r="1" spans="1:10" s="10" customFormat="1" ht="13.8" thickBot="1">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3563,13 +4836,13 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="B2" s="111" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
       <c r="G2" s="12"/>
       <c r="H2" s="2"/>
       <c r="I2" s="9"/>
@@ -3581,13 +4854,13 @@
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="109" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
+      <c r="B3" s="111" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
       <c r="G3" s="12"/>
       <c r="H3" s="2"/>
       <c r="I3" s="9"/>
@@ -3599,11 +4872,11 @@
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
       <c r="G4" s="12"/>
       <c r="H4" s="2"/>
       <c r="I4" s="9"/>
@@ -3622,10 +4895,10 @@
       <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="111"/>
+      <c r="F5" s="113"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
@@ -3635,26 +4908,26 @@
     </row>
     <row r="6" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="20">
-        <f>COUNTIF(F30:F1012,"Pass")</f>
+        <f>COUNTIF(F10:F1024,"Pass")</f>
         <v>0</v>
       </c>
       <c r="B6" s="21">
-        <f>COUNTIF(F30:F1012,"Fail")</f>
+        <f>COUNTIF(F10:F1024,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="21">
         <f>E6-D6-B6-A6</f>
+        <v>18</v>
+      </c>
+      <c r="D6" s="22">
+        <f>COUNTIF(F$10:F$1024,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="22">
-        <f>COUNTIF(F$30:F$1012,"N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="108">
-        <f>COUNTA(A30:A997)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="108"/>
+      <c r="E6" s="110">
+        <f>COUNTA(A10:A1009)</f>
+        <v>18</v>
+      </c>
+      <c r="F6" s="110"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -3703,7 +4976,7 @@
     <row r="9" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="27" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -3713,216 +4986,468 @@
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
     </row>
-    <row r="10" spans="1:10" s="90" customFormat="1" ht="38.25">
-      <c r="A10" s="31">
-        <v>1</v>
+    <row r="10" spans="1:10" s="90" customFormat="1" ht="52.8">
+      <c r="A10" s="96" t="s">
+        <v>103</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="92" t="s">
-        <v>71</v>
+        <v>148</v>
+      </c>
+      <c r="D10" s="100" t="s">
+        <v>65</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
       <c r="I10" s="30"/>
     </row>
-    <row r="11" spans="1:10" s="90" customFormat="1" ht="25.5">
-      <c r="A11" s="31">
-        <v>2</v>
+    <row r="11" spans="1:10" s="90" customFormat="1" ht="39.6">
+      <c r="A11" s="96" t="s">
+        <v>104</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>76</v>
+        <v>122</v>
+      </c>
+      <c r="D11" s="101" t="s">
+        <v>123</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
       <c r="H11" s="32"/>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="1:10" s="90" customFormat="1" ht="38.25">
-      <c r="A12" s="31">
-        <v>3</v>
+    <row r="12" spans="1:10" s="90" customFormat="1" ht="39.6">
+      <c r="A12" s="96" t="s">
+        <v>105</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>79</v>
+        <v>124</v>
+      </c>
+      <c r="D12" s="101" t="s">
+        <v>123</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
       <c r="H12" s="32"/>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="1:10" s="90" customFormat="1" ht="38.25">
-      <c r="A13" s="31">
-        <v>4</v>
+    <row r="13" spans="1:10" s="90" customFormat="1" ht="39.6">
+      <c r="A13" s="96" t="s">
+        <v>106</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>82</v>
+        <v>125</v>
+      </c>
+      <c r="D13" s="101" t="s">
+        <v>123</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
       <c r="H13" s="32"/>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="1:10" s="90" customFormat="1" ht="38.25">
-      <c r="A14" s="31">
-        <v>5</v>
+    <row r="14" spans="1:10" s="90" customFormat="1" ht="39.6">
+      <c r="A14" s="96" t="s">
+        <v>107</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>42</v>
+        <v>126</v>
+      </c>
+      <c r="D14" s="101" t="s">
+        <v>123</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="32"/>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="1:10" s="90" customFormat="1" ht="25.5">
-      <c r="A15" s="31">
-        <v>6</v>
+    <row r="15" spans="1:10" s="90" customFormat="1" ht="39.6">
+      <c r="A15" s="96" t="s">
+        <v>108</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>45</v>
+        <v>66</v>
+      </c>
+      <c r="D15" s="101" t="s">
+        <v>68</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
       <c r="H15" s="32"/>
       <c r="I15" s="30"/>
     </row>
-    <row r="16" spans="1:10" s="90" customFormat="1">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:10" s="90" customFormat="1" ht="39.6">
+      <c r="A16" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
       <c r="I16" s="30"/>
     </row>
-    <row r="17" spans="1:9" s="90" customFormat="1">
-      <c r="A17" s="30"/>
-      <c r="B17" s="1"/>
+    <row r="17" spans="1:9" s="90" customFormat="1" ht="39.6">
+      <c r="A17" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="30"/>
     </row>
-    <row r="18" spans="1:9" s="90" customFormat="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" s="90" customFormat="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="33"/>
-      <c r="G20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="33"/>
-      <c r="G21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="33"/>
-      <c r="G22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="33"/>
-      <c r="G23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="33"/>
-      <c r="G24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="33"/>
-      <c r="G25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="33"/>
-      <c r="G26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="33"/>
-      <c r="G27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="33"/>
-      <c r="G28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="33"/>
-      <c r="G29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" ht="66.75" customHeight="1">
-      <c r="I31" s="1"/>
+    <row r="18" spans="1:9" s="90" customFormat="1" ht="39.6">
+      <c r="A18" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="30"/>
+    </row>
+    <row r="19" spans="1:9" s="90" customFormat="1" ht="39.6">
+      <c r="A19" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="1:9" s="90" customFormat="1" ht="79.2">
+      <c r="A20" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" spans="1:9" s="90" customFormat="1" ht="39.6">
+      <c r="A21" s="96" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="1:9" s="90" customFormat="1" ht="39.6">
+      <c r="A22" s="96" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="1:9" s="90" customFormat="1" ht="39.6">
+      <c r="A23" s="96" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:9" s="90" customFormat="1" ht="39.6">
+      <c r="A24" s="96" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="1:9" s="90" customFormat="1" ht="52.8">
+      <c r="A25" s="96" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="1:9" s="90" customFormat="1" ht="39.6">
+      <c r="A26" s="96" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="30"/>
+    </row>
+    <row r="27" spans="1:9" s="90" customFormat="1" ht="39.6">
+      <c r="A27" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="1:9" s="90" customFormat="1">
+      <c r="A28" s="30"/>
+      <c r="I28" s="30"/>
+    </row>
+    <row r="29" spans="1:9" s="90" customFormat="1">
+      <c r="A29" s="30"/>
+      <c r="B29" s="1"/>
+      <c r="I29" s="30"/>
+    </row>
+    <row r="30" spans="1:9" s="90" customFormat="1">
+      <c r="A30" s="4"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" s="90" customFormat="1">
+      <c r="A31" s="33"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="33"/>
+      <c r="G32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="33"/>
+      <c r="G33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="33"/>
+      <c r="G34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="33"/>
+      <c r="G35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="33"/>
+      <c r="G36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="33"/>
+      <c r="G37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="33"/>
+      <c r="G38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="33"/>
+      <c r="G39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="33"/>
+      <c r="G40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="33"/>
+      <c r="G41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" ht="66.75" customHeight="1">
+      <c r="I43" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3933,7 +5458,7 @@
     <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F33:F159 F1:F3 F7:F15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F45:F171 F1:F3 F7:F27">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3951,25 +5476,25 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" style="4" customWidth="1"/>
     <col min="10" max="10" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" ht="13.5" thickBot="1">
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="13.8" thickBot="1">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3984,13 +5509,13 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="B2" s="111" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
       <c r="G2" s="12"/>
       <c r="H2" s="2"/>
       <c r="I2" s="9"/>
@@ -4002,13 +5527,13 @@
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="109" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
+      <c r="B3" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
       <c r="G3" s="12"/>
       <c r="H3" s="2"/>
       <c r="I3" s="9"/>
@@ -4020,11 +5545,11 @@
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
       <c r="G4" s="12"/>
       <c r="H4" s="2"/>
       <c r="I4" s="9"/>
@@ -4043,10 +5568,10 @@
       <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="111"/>
+      <c r="F5" s="113"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
@@ -4056,26 +5581,26 @@
     </row>
     <row r="6" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="20">
-        <f>COUNTIF(F21:F1003,"Pass")</f>
+        <f>COUNTIF(F10:F1003,"Pass")</f>
         <v>0</v>
       </c>
       <c r="B6" s="21">
-        <f>COUNTIF(F21:F1003,"Fail")</f>
+        <f>COUNTIF(F10:F1003,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="21">
         <f>E6-D6-B6-A6</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="22">
+        <f>COUNTIF(F$10:F$1003,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="22">
-        <f>COUNTIF(F$21:F$1003,"N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="108">
-        <f>COUNTA(A21:A988)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="108"/>
+      <c r="E6" s="110">
+        <f>COUNTA(A10:A988)</f>
+        <v>3</v>
+      </c>
+      <c r="F6" s="110"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -4124,7 +5649,7 @@
     <row r="9" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="27" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -4134,67 +5659,67 @@
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
     </row>
-    <row r="10" spans="1:11" s="90" customFormat="1" ht="38.25">
-      <c r="A10" s="31">
-        <v>1</v>
+    <row r="10" spans="1:11" s="90" customFormat="1" ht="66">
+      <c r="A10" s="31" t="s">
+        <v>109</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="92" t="s">
-        <v>71</v>
+        <v>173</v>
+      </c>
+      <c r="D10" s="100" t="s">
+        <v>65</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
       <c r="I10" s="30"/>
     </row>
-    <row r="11" spans="1:11" s="90" customFormat="1" ht="25.5">
-      <c r="A11" s="31">
-        <v>2</v>
+    <row r="11" spans="1:11" s="90" customFormat="1" ht="39.6">
+      <c r="A11" s="31" t="s">
+        <v>110</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>103</v>
+        <v>81</v>
+      </c>
+      <c r="D11" s="101" t="s">
+        <v>82</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
       <c r="H11" s="32"/>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="1:11" s="90" customFormat="1" ht="25.5">
-      <c r="A12" s="31">
-        <v>3</v>
+    <row r="12" spans="1:11" s="90" customFormat="1" ht="39.6">
+      <c r="A12" s="31" t="s">
+        <v>111</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>100</v>
+        <v>120</v>
+      </c>
+      <c r="D12" s="101" t="s">
+        <v>79</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
+        <v>174</v>
+      </c>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:11" s="90" customFormat="1">
@@ -4285,7 +5810,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4298,7 +5823,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4309,9 +5834,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
